--- a/FiaMembers.xlsx
+++ b/FiaMembers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
   <si>
     <t>https://fia.org/node/1788/</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Eagle Seven LLC</t>
   </si>
   <si>
-    <t>Enyx</t>
-  </si>
-  <si>
     <t>Federated Investors Inc.</t>
   </si>
   <si>
@@ -282,15 +279,9 @@
     <t>https://www.cogcap.com/</t>
   </si>
   <si>
-    <t>Seems Chicago only</t>
-  </si>
-  <si>
     <t>http://www.consensyssolutions.com/</t>
   </si>
   <si>
-    <t>? But in London</t>
-  </si>
-  <si>
     <t>commodities</t>
   </si>
   <si>
@@ -310,6 +301,162 @@
   </si>
   <si>
     <t>delivers solutins</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>https://www.aqr.com/</t>
+  </si>
+  <si>
+    <t>http://www.atlantictrading.co.uk/</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://www.citadelsecurities.com/</t>
+  </si>
+  <si>
+    <t>https://www.cqg.com/about-cqg/contact-us</t>
+  </si>
+  <si>
+    <t>Chicago Only</t>
+  </si>
+  <si>
+    <t>MoreInfo</t>
+  </si>
+  <si>
+    <t>https://www.deshaw.com/</t>
+  </si>
+  <si>
+    <t>https://drw.com/careers</t>
+  </si>
+  <si>
+    <t>https://www.dvtrading.co/</t>
+  </si>
+  <si>
+    <t>Amsterdam office</t>
+  </si>
+  <si>
+    <t>https://www.geneva-trading.com/</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>https://www.flowtraders.com/</t>
+  </si>
+  <si>
+    <t>http://www.eagleseven.com/</t>
+  </si>
+  <si>
+    <t>https://gunvorgroup.com/en/</t>
+  </si>
+  <si>
+    <t>http://www.hartreepartners.com/</t>
+  </si>
+  <si>
+    <t>http://www.hudson-trading.com/</t>
+  </si>
+  <si>
+    <t>commodities, Data Provider</t>
+  </si>
+  <si>
+    <t>https://www.imc.com/us/contact-us/</t>
+  </si>
+  <si>
+    <t>Solution provider</t>
+  </si>
+  <si>
+    <t>https://iongroup.com/financial-institutions/</t>
+  </si>
+  <si>
+    <t>http://jumptrading.com/</t>
+  </si>
+  <si>
+    <t>http://www.ketchumtrading.com/</t>
+  </si>
+  <si>
+    <t>Hull's company</t>
+  </si>
+  <si>
+    <t>http://makoglobal.com/</t>
+  </si>
+  <si>
+    <t>https://www.man.com/</t>
+  </si>
+  <si>
+    <t>data provider - fix income</t>
+  </si>
+  <si>
+    <t>http://www.marquettepartners.com/</t>
+  </si>
+  <si>
+    <t>https://www.optiver.com/eu/en/our-locations</t>
+  </si>
+  <si>
+    <t>http://www.ostc.com/contact/</t>
+  </si>
+  <si>
+    <t>Uk offices</t>
+  </si>
+  <si>
+    <t>https://www.quantlab.com/</t>
+  </si>
+  <si>
+    <t>http://www.rgmadvisors.com/</t>
+  </si>
+  <si>
+    <t>http://www.rkrcapital.com/contact.html</t>
+  </si>
+  <si>
+    <t>Asian guys</t>
+  </si>
+  <si>
+    <t>Czech guys</t>
+  </si>
+  <si>
+    <t>http://www.ssw-trading.com/en/about-us/</t>
+  </si>
+  <si>
+    <t>Looks like German guys</t>
+  </si>
+  <si>
+    <t>Provides systems</t>
+  </si>
+  <si>
+    <t>http://suntradingllc.com/</t>
+  </si>
+  <si>
+    <t>https://sig.com/about/locations/</t>
+  </si>
+  <si>
+    <t>blockchain transactions</t>
+  </si>
+  <si>
+    <t>http://www.tibra.com/our-offices/</t>
+  </si>
+  <si>
+    <t>https://www.tower-research.com/</t>
+  </si>
+  <si>
+    <t>http://www.tradeforecaster.com/</t>
+  </si>
+  <si>
+    <t>https://www.transtrend.com/en/</t>
+  </si>
+  <si>
+    <t>http://www.virtu.com/</t>
+  </si>
+  <si>
+    <t>http://whtrading.com/contact-us/</t>
+  </si>
+  <si>
+    <t>https://www.xtxmarkets.com/</t>
+  </si>
+  <si>
+    <t>http://www.xrtrading.com/contact-info</t>
   </si>
 </sst>
 </file>
@@ -1083,13 +1230,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1125,13 +1272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1180,13 +1327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1235,13 +1382,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1277,13 +1424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1319,13 +1466,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1361,13 +1508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1416,13 +1563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1471,13 +1618,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1526,13 +1673,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1581,13 +1728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1636,13 +1783,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1691,13 +1838,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1746,12 +1893,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D74" totalsRowShown="0">
-  <autoFilter ref="A1:D74"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E73" totalsRowShown="0">
+  <autoFilter ref="A1:E73"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Member" dataDxfId="0"/>
     <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Like"/>
+    <tableColumn id="5" name="Like"/>
+    <tableColumn id="3" name="London"/>
     <tableColumn id="4" name="Details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2063,491 +2211,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>89</v>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
       <c r="D31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
       <c r="D45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
       <c r="D52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
       <c r="D66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>74</v>
+      <c r="B73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B27" r:id="rId3"/>
-    <hyperlink ref="B36" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId3"/>
+    <hyperlink ref="B35" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B18" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B23" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B29" r:id="rId18"/>
+    <hyperlink ref="B31" r:id="rId19"/>
+    <hyperlink ref="B33" r:id="rId20"/>
+    <hyperlink ref="B36" r:id="rId21"/>
+    <hyperlink ref="B38" r:id="rId22"/>
+    <hyperlink ref="B39" r:id="rId23"/>
+    <hyperlink ref="B40" r:id="rId24"/>
+    <hyperlink ref="B42" r:id="rId25"/>
+    <hyperlink ref="B45" r:id="rId26"/>
+    <hyperlink ref="B46" r:id="rId27"/>
+    <hyperlink ref="B49" r:id="rId28"/>
+    <hyperlink ref="B50" r:id="rId29"/>
+    <hyperlink ref="B52" r:id="rId30"/>
+    <hyperlink ref="B59" r:id="rId31"/>
+    <hyperlink ref="B61" r:id="rId32"/>
+    <hyperlink ref="B62" r:id="rId33"/>
+    <hyperlink ref="B66" r:id="rId34"/>
+    <hyperlink ref="B67" r:id="rId35"/>
+    <hyperlink ref="B68" r:id="rId36"/>
+    <hyperlink ref="B69" r:id="rId37"/>
+    <hyperlink ref="B70" r:id="rId38"/>
+    <hyperlink ref="B71" r:id="rId39"/>
+    <hyperlink ref="B72" r:id="rId40"/>
+    <hyperlink ref="B73" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <drawing r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
